--- a/cw/reportfiles/reportready-alpha-5h4000epo.xlsx
+++ b/cw/reportfiles/reportready-alpha-5h4000epo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardadogan/Documents/code/AI/semester2/cw/reportfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA1E26-A892-D54D-8C5E-7838BE525202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60ED474-3301-9448-9AC1-FA811ED88E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of alpha value on MSE</a:t>
+              <a:t> of alpha value on MSE (5 hidden nodes, 4000 epochs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2350,7 +2350,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
